--- a/13/Alamo-Cup/TEXAS_UTSA.xlsx
+++ b/13/Alamo-Cup/TEXAS_UTSA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\live-stats\13\Alamo-Cup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\13\Alamo-Cup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B990D2-C39D-42E4-BA80-D869E8DEE081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF92E39-735C-4BC4-9E1F-9B5D171055AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="1540" windowWidth="18480" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
   <si>
     <t>A</t>
   </si>
@@ -65,9 +67,6 @@
   </si>
   <si>
     <t>0722</t>
-  </si>
-  <si>
-    <t>0800</t>
   </si>
   <si>
     <t>YA33</t>
@@ -194,6 +193,135 @@
   </si>
   <si>
     <t>JAY STEWART</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0141</t>
+  </si>
+  <si>
+    <t>0230</t>
+  </si>
+  <si>
+    <t>0248</t>
+  </si>
+  <si>
+    <t>0357</t>
+  </si>
+  <si>
+    <t>0432</t>
+  </si>
+  <si>
+    <t>0500</t>
+  </si>
+  <si>
+    <t>0547</t>
+  </si>
+  <si>
+    <t>0652</t>
+  </si>
+  <si>
+    <t>0655</t>
+  </si>
+  <si>
+    <t>0752</t>
+  </si>
+  <si>
+    <t>0837</t>
+  </si>
+  <si>
+    <t>0850</t>
+  </si>
+  <si>
+    <t>0920</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>1228</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>1343</t>
+  </si>
+  <si>
+    <t>1417</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>1650</t>
+  </si>
+  <si>
+    <t>1729</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1831</t>
+  </si>
+  <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2135</t>
+  </si>
+  <si>
+    <t>2230</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2530</t>
+  </si>
+  <si>
+    <t>2623</t>
+  </si>
+  <si>
+    <t>2647</t>
+  </si>
+  <si>
+    <t>2705</t>
   </si>
 </sst>
 </file>
@@ -528,9 +656,6 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,6 +677,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,14 +696,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,7 +920,9 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="56" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -819,21 +949,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -846,38 +976,38 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="27">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="30">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")</f>
         <v>9</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="27" t="e">
-        <f ca="1">_xludf.TEXTJOIN("",TRUE,IF(COUNTIF($A$7:$R$32,"RCA"),"*",""),IF(COUNTIF($A$7:$R$32,"OCA"),"^",""),IF(COUNTIF($A$7:$R$32,"2CA"),"!",""))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="33" t="e">
-        <f ca="1">_xludf.CONCAT(LEN(O2)*30+L2*10,O2)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="29"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="37" t="str">
+        <f>IF(COUNTIF($A$7:$R$32,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCA"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CA"),"!","")</f>
+        <v>*</v>
+      </c>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="36" t="str">
+        <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
+        <v>120*</v>
+      </c>
+      <c r="S2" s="31"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -887,25 +1017,25 @@
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="32"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="35"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -915,40 +1045,40 @@
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="27" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="27">
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="30">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")</f>
         <v>9</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="27" t="e">
-        <f ca="1">_xludf.TEXTJOIN("",TRUE,IF(COUNTIF($A$7:$R$32,"RCB"),"*",""),IF(COUNTIF($A$7:$R$32,"OCB"),"^",""),IF(COUNTIF($A$7:$R$32,"2CB"),"!",""))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="33" t="e">
-        <f ca="1">_xludf.CONCAT(LEN(O4)*30+L4*10,O4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="29"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="37" t="str">
+        <f>IF(COUNTIF($A$7:$R$32,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CB"),"!","")</f>
+        <v/>
+      </c>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="36" t="str">
+        <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
+        <v>90</v>
+      </c>
+      <c r="S4" s="31"/>
+      <c r="T4" s="32"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -958,25 +1088,25 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="32"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1022,27 +1152,37 @@
       <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -1135,32 +1275,44 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1201,7 +1353,7 @@
         <v>6</v>
       </c>
       <c r="L11" s="11">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>6</v>
@@ -1271,30 +1423,38 @@
         <v>2</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="J13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1327,27 +1487,29 @@
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K14" s="10">
         <v>23</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N14" s="10">
         <v>33</v>
       </c>
-      <c r="O14" s="11"/>
+      <c r="O14" s="11">
+        <v>41</v>
+      </c>
       <c r="P14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="10">
         <v>41</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -1391,34 +1553,48 @@
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="G16" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="12"/>
+      <c r="L16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="N16" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="14"/>
+      <c r="O16" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="17"/>
+      <c r="R16" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -1429,50 +1605,52 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="19">
+      <c r="A17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="18">
         <v>41</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="19">
+      <c r="C17" s="20">
+        <v>22</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="18">
         <v>9</v>
       </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="18">
         <v>55</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <v>33</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="18">
         <v>9</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="22">
+      <c r="L17" s="19"/>
+      <c r="M17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="21">
         <v>22</v>
       </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="22">
+      <c r="O17" s="22"/>
+      <c r="P17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="21">
         <v>8</v>
       </c>
-      <c r="R17" s="23"/>
+      <c r="R17" s="22"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -1511,36 +1689,52 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="B19" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="D19" s="15"/>
       <c r="E19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="14"/>
+      <c r="I19" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="J19" s="15"/>
       <c r="K19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="12"/>
+      <c r="L19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="N19" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="14"/>
+      <c r="O19" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="P19" s="15"/>
       <c r="Q19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="R19" s="17"/>
+      <c r="R19" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -1551,54 +1745,54 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="13" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>55</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>41</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="24">
         <v>33</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>55</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="24">
         <v>8</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="25">
+      <c r="I20" s="20"/>
+      <c r="J20" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="24">
         <v>8</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="20">
         <v>9</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="24">
         <v>6</v>
       </c>
-      <c r="O20" s="21"/>
-      <c r="P20" s="24" t="s">
+      <c r="O20" s="20"/>
+      <c r="P20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="Q20" s="24">
         <v>8</v>
       </c>
-      <c r="R20" s="21"/>
+      <c r="R20" s="20"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -1641,34 +1835,46 @@
       <c r="B22" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="D22" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="14"/>
+      <c r="I22" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="J22" s="15"/>
       <c r="K22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="17"/>
+      <c r="L22" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="M22" s="12"/>
       <c r="N22" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="14"/>
+      <c r="O22" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="R22" s="17"/>
+      <c r="R22" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -1679,54 +1885,54 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="13" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="25">
+      <c r="A23" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="24">
         <v>9</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>6</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="24">
         <v>23</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="25">
+      <c r="F23" s="20"/>
+      <c r="G23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="24">
         <v>1</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="25">
+      <c r="I23" s="20"/>
+      <c r="J23" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="24">
         <v>37</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="20">
         <v>32</v>
       </c>
-      <c r="M23" s="24" t="s">
+      <c r="M23" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="25">
+      <c r="N23" s="24">
         <v>0</v>
       </c>
-      <c r="O23" s="21" t="s">
+      <c r="O23" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="P23" s="24" t="s">
+      <c r="P23" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q23" s="25">
+      <c r="Q23" s="24">
         <v>37</v>
       </c>
-      <c r="R23" s="21"/>
+      <c r="R23" s="20"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -1765,38 +1971,48 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="A25" s="12"/>
       <c r="B25" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="D25" s="15"/>
       <c r="E25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="17"/>
+      <c r="F25" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="G25" s="12"/>
       <c r="H25" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="14"/>
+      <c r="I25" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="J25" s="15"/>
       <c r="K25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="17"/>
+      <c r="L25" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="M25" s="12"/>
       <c r="N25" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O25" s="14"/>
+      <c r="O25" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="P25" s="15"/>
       <c r="Q25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="17"/>
+      <c r="R25" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -1807,50 +2023,50 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="13" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="24">
         <v>1</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="25" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="25" t="s">
+      <c r="F26" s="20"/>
+      <c r="G26" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="25" t="s">
+      <c r="I26" s="20"/>
+      <c r="J26" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="21"/>
-      <c r="M26" s="24" t="s">
+      <c r="L26" s="20"/>
+      <c r="M26" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N26" s="25">
+      <c r="N26" s="24">
         <v>5</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="20">
         <v>20</v>
       </c>
-      <c r="P26" s="24" t="s">
+      <c r="P26" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="Q26" s="24">
         <v>6</v>
       </c>
-      <c r="R26" s="21">
+      <c r="R26" s="20">
         <v>23</v>
       </c>
       <c r="S26" s="1"/>
@@ -1895,7 +2111,9 @@
       <c r="B28" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7" t="s">
         <v>2</v>
@@ -1931,18 +2149,18 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="13" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="25">
+      <c r="A29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="24">
         <v>41</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="11"/>
       <c r="J29" s="9"/>
       <c r="K29" s="10"/>
@@ -29304,6 +29522,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R2:T3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:T5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29313,13 +29538,6 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="R2:T3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:T5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29334,7 +29552,7 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -29344,604 +29562,604 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
-        <v>1</v>
-      </c>
-      <c r="B3" s="26" t="s">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
-        <v>4</v>
-      </c>
-      <c r="B6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="26" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
-        <v>5</v>
-      </c>
-      <c r="B7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="26" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
-        <v>6</v>
-      </c>
-      <c r="B8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="26" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
-        <v>7</v>
-      </c>
-      <c r="B9" s="26" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
-        <v>8</v>
-      </c>
-      <c r="B10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="26" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
-        <v>9</v>
-      </c>
-      <c r="B11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="26" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>11</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
-        <v>11</v>
-      </c>
-      <c r="B13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="26" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>12</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
-        <v>12</v>
-      </c>
-      <c r="C14" s="26" t="s">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>15</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
-        <v>15</v>
-      </c>
-      <c r="B17" s="26" t="s">
+    <row r="18" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>19</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
-        <v>19</v>
-      </c>
-      <c r="C21" s="26" t="s">
+    <row r="22" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>20</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
-        <v>20</v>
-      </c>
-      <c r="B22" s="26" t="s">
+    <row r="23" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>21</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
-        <v>21</v>
-      </c>
-      <c r="C23" s="26" t="s">
+    <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>22</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
-        <v>22</v>
-      </c>
-      <c r="B24" s="26" t="s">
+    <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
-        <v>23</v>
-      </c>
-      <c r="C25" s="26" t="s">
+    <row r="26" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
+        <v>32</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="26">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
-        <v>32</v>
-      </c>
-      <c r="C34" s="26" t="s">
+    <row r="35" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="25">
+        <v>33</v>
+      </c>
+      <c r="B35" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
-        <v>33</v>
-      </c>
-      <c r="B35" s="26" t="s">
+    <row r="36" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="25">
+        <v>37</v>
+      </c>
+      <c r="C39" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="26">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="26">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="26">
-        <v>37</v>
-      </c>
-      <c r="C39" s="26" t="s">
+    <row r="40" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="25">
+        <v>41</v>
+      </c>
+      <c r="B43" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="26">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="26">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="26">
-        <v>41</v>
-      </c>
-      <c r="B43" s="26" t="s">
+    <row r="44" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="25">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="25">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="26">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="26">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
+    <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="25">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="26">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="26">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="26">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="26">
+    <row r="57" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="25">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="25">
+        <v>64</v>
+      </c>
+      <c r="B66" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="26">
+    <row r="67" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="25">
+        <v>69</v>
+      </c>
+      <c r="B71" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="26">
+    <row r="72" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="25">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="26">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="26">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="26">
-        <v>55</v>
-      </c>
-      <c r="C57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="26">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="26">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="26">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="26">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="26">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="26">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="26">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="26">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="26">
-        <v>64</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="26">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="26">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="26">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="26">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="26">
-        <v>69</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="26">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="26">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="26">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="26">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="26">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="26">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="26">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="26">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="26">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="26">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="26">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="26">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="26">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="26">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="26">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="26">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="26">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="26">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="26">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="26">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="26">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="26">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="26">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="26">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="26">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="26">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="26">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="26">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="26">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="26">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
